--- a/M/Project Outputs for GD_Tcontroller_M/GD_Tcontroller_M.xlsx
+++ b/M/Project Outputs for GD_Tcontroller_M/GD_Tcontroller_M.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Comment</t>
   </si>
@@ -34,13 +34,19 @@
     <t>TAN 22uF 10V 3216</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>C2, C7, C10</t>
+  </si>
+  <si>
+    <t>TAN 10uF 35V 6032</t>
+  </si>
+  <si>
+    <t>C3, C5</t>
   </si>
   <si>
     <t>CAPACITOR 330uF 20% 35V 10mmX16mm</t>
   </si>
   <si>
-    <t>C3, C7, C28</t>
+    <t>C28</t>
   </si>
   <si>
     <t>HT5.08-4P-H</t>
@@ -79,22 +85,16 @@
     <t>D21, D22, D23, D24, D25, D26</t>
   </si>
   <si>
-    <t>DC3-12P,2.54mm</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>DC3-10P,2.54mm</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>HT5.08-3P-H</t>
-  </si>
-  <si>
-    <t>PWM1</t>
+    <t>DC3-20P,2.00mm</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Header 4X2A</t>
+  </si>
+  <si>
+    <t>P?</t>
   </si>
   <si>
     <t>BCV47,SOT23</t>
@@ -115,19 +115,19 @@
     <t>R1, R2, R3, R4, R5, R6, R8</t>
   </si>
   <si>
-    <t>RES 100 ohm 5% 0805(2012)</t>
+    <t>RES 3.3K 5% 0805(2012)</t>
   </si>
   <si>
     <t>R21, R22, R25, R26, R29, R30</t>
   </si>
   <si>
-    <t>RES 2K 5% 0805(2012)</t>
+    <t>RES 2K 5% 1206</t>
   </si>
   <si>
     <t>R34, R36</t>
   </si>
   <si>
-    <t>RES 680 ohm 5% 0805(2012)</t>
+    <t>RES 680 ohm 5% 1206</t>
   </si>
   <si>
     <t>R35</t>
@@ -137,12 +137,6 @@
   </si>
   <si>
     <t>RE1, RE2, RE3, RE4, RE5, RE6</t>
-  </si>
-  <si>
-    <t>PH2.0-2P-H</t>
-  </si>
-  <si>
-    <t>T1, T2</t>
   </si>
   <si>
     <t>SN65HVD08D</t>
@@ -540,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -590,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -623,7 +617,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -645,7 +639,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -656,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -667,7 +661,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -777,7 +771,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -799,17 +793,6 @@
         <v>46</v>
       </c>
       <c r="C23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="3">
         <v>1</v>
       </c>
     </row>
